--- a/medicine/Psychotrope/Caramany_(AOC)/Caramany_(AOC).xlsx
+++ b/medicine/Psychotrope/Caramany_(AOC)/Caramany_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le caramany[1], ou côtes-du-roussillon villages Caramany, est un vin produit sur les communes de Caramany, Cassagnes et Bélesta, dans le département des Pyrénées-Orientales.
+Le caramany, ou côtes-du-roussillon villages Caramany, est un vin produit sur les communes de Caramany, Cassagnes et Bélesta, dans le département des Pyrénées-Orientales.
 Aux côtés de Latour-de-France, Lesquerde et Tautavel, il s'agit d'une des quatre dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-roussillon villages, localisée dans le nord du département des Pyrénées-Orientales, autour de la vallée de l'Agly.
 </t>
         </is>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,11 +555,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Localisation
-L'appellation se répartit sur les territoires communaux de Bélesta, Caramany et Cassagnes, en majeure partie en rive droite de l'Agly qui à cet endroit remplit le réservoir de barrage de Caramany. Les vignes s'étagent approximativement entre 130 et 500 mètres d'altitude.
-Orographie
-Géologie
-Climatologie</t>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation se répartit sur les territoires communaux de Bélesta, Caramany et Cassagnes, en majeure partie en rive droite de l'Agly qui à cet endroit remplit le réservoir de barrage de Caramany. Les vignes s'étagent approximativement entre 130 et 500 mètres d'altitude.
+</t>
         </is>
       </c>
     </row>
@@ -574,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
